--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_9.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20355670.24425592</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="V8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="W8" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>21.81976115797297</v>
-      </c>
-      <c r="G9" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
         <v>25.62029119463083</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,49 +1616,49 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.61706312961832</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H14" t="n">
+      <c r="S14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="I14" t="n">
+      <c r="T14" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1695,58 +1695,58 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="U15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H15" t="n">
+      <c r="V15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="I15" t="n">
+      <c r="W15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>25.62029119463083</v>
@@ -1816,7 +1816,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>19.84491174912431</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36130568012912</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>82.46119763909351</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23.81770009755909</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>57.01682479830529</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>87.95566939920795</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,25 +2834,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.5653839441606</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>14.99033145897384</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V32" t="n">
         <v>215.3939976830282</v>
@@ -3092,7 +3092,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="X32" t="n">
-        <v>215.3939976830282</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>177.5311069016363</v>
+        <v>90.64606864269493</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,19 +3226,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.0339917726842</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="C35" t="n">
-        <v>179.7283339446664</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3308,31 +3308,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>196.0929612559941</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>215.3939976830282</v>
+        <v>59.10466172255005</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>179.7283339446664</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>142.8930380653092</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.886618849664252</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>213.4242636173429</v>
       </c>
       <c r="G41" t="n">
-        <v>177.9933921796109</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>213.4242636173429</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="X41" t="n">
         <v>213.4242636173429</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>130.0026832674276</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.82625724151239</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.049623295570466</v>
+        <v>40.631385380739</v>
       </c>
       <c r="C8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D8" t="n">
         <v>2.049623295570466</v>
@@ -4805,10 +4805,10 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M8" t="n">
         <v>51.75298821315428</v>
@@ -4817,37 +4817,37 @@
         <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S8" t="n">
-        <v>76.6020827637447</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T8" t="n">
-        <v>76.6020827637447</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U8" t="n">
-        <v>50.72300074896609</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V8" t="n">
-        <v>24.84391873418747</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W8" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X8" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.049623295570466</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F9" t="n">
-        <v>80.44100199269204</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G9" t="n">
         <v>54.56191997791342</v>
@@ -4884,49 +4884,49 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="N9" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L9" t="n">
-        <v>27.41371157825499</v>
-      </c>
-      <c r="M9" t="n">
-        <v>27.41371157825499</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>78.14188814362403</v>
-      </c>
-      <c r="P9" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="C10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="D10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.6020827637447</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>50.72300074896609</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="S10" t="n">
-        <v>24.84391873418747</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="T10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="U10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="V10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="W10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="X10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.049623295570466</v>
+        <v>73.85315272828358</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>39.99869455743244</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
@@ -5045,46 +5045,46 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
+        <v>27.41371157825499</v>
+      </c>
+      <c r="M11" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="M11" t="n">
-        <v>77.1170764958388</v>
-      </c>
       <c r="N11" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S11" t="n">
-        <v>40.631385380739</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T11" t="n">
-        <v>40.631385380739</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y11" t="n">
-        <v>40.631385380739</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5121,7 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
         <v>27.41371157825499</v>
@@ -5130,10 +5130,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N12" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G13" t="n">
-        <v>2.049623295570466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="H13" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="I13" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="J13" t="n">
         <v>2.049623295570466</v>
@@ -5203,46 +5203,46 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>27.413711578255</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>47.97407071350496</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09498869872634</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F14" t="n">
-        <v>91.75685858698967</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G14" t="n">
-        <v>65.87777657221105</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H14" t="n">
-        <v>39.99869455743244</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I14" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N14" t="n">
+        <v>51.75298821315428</v>
+      </c>
+      <c r="O14" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="O14" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>80.44100199269204</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>54.56191997791342</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>28.6828379631348</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
@@ -5361,16 +5361,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N15" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P15" t="n">
         <v>102.4811647785233</v>
@@ -5385,22 +5385,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V15" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5437,13 +5437,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570477</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41371157825499</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093951</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N16" t="n">
         <v>78.14188814362404</v>
@@ -5452,16 +5452,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R16" t="n">
-        <v>47.97407071350496</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09498869872634</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T16" t="n">
         <v>2.049623295570466</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S17" t="n">
-        <v>44.53106090472204</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T17" t="n">
-        <v>16.66234852056432</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E18" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I18" t="n">
         <v>2.207202020825291</v>
@@ -5595,13 +5595,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M18" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N18" t="n">
         <v>83.04597603355158</v>
@@ -5616,28 +5616,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>80.62014129470579</v>
       </c>
       <c r="S19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T19" t="n">
         <v>52.75142891054807</v>
@@ -5707,10 +5707,10 @@
         <v>24.88271652639035</v>
       </c>
       <c r="V19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X19" t="n">
         <v>2.207202020825291</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C20" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D20" t="n">
-        <v>114.6452713866835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E20" t="n">
-        <v>114.6452713866835</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F20" t="n">
-        <v>114.6452713866835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G20" t="n">
-        <v>114.6452713866835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H20" t="n">
-        <v>114.6452713866835</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I20" t="n">
         <v>31.35113235729608</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X20" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y20" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502.6601697108322</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
-        <v>526.7184526376595</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D23" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>603.1082791007675</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X24" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,10 +6306,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
         <v>486.8488635328713</v>
@@ -6342,13 +6342,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6406,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>761.6974622895962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>439.1764243339896</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C30" t="n">
-        <v>439.1764243339896</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D30" t="n">
-        <v>439.1764243339896</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E30" t="n">
-        <v>279.9389693285341</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>454.3181732824481</v>
+        <v>812.9810101124942</v>
       </c>
       <c r="W30" t="n">
-        <v>454.3181732824481</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="X30" t="n">
-        <v>439.1764243339896</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y30" t="n">
-        <v>439.1764243339896</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
         <v>17.23151981464226</v>
@@ -6707,13 +6707,13 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>506.5265183822256</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>712.3810405894649</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
         <v>861.5759907321129</v>
@@ -6731,19 +6731,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>861.5759907321129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V32" t="n">
-        <v>644.0062961027915</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W32" t="n">
-        <v>426.43660147347</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="X32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y32" t="n">
-        <v>208.8669068441485</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.6189587570206</v>
+        <v>176.4689748200978</v>
       </c>
       <c r="C33" t="n">
-        <v>166.1659294758935</v>
+        <v>176.4689748200978</v>
       </c>
       <c r="D33" t="n">
-        <v>17.23151981464226</v>
+        <v>176.4689748200978</v>
       </c>
       <c r="E33" t="n">
         <v>17.23151981464226</v>
@@ -6780,19 +6780,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>39.21234000016818</v>
+        <v>221.8558176135191</v>
       </c>
       <c r="M33" t="n">
-        <v>252.4523977063661</v>
+        <v>435.095875319717</v>
       </c>
       <c r="N33" t="n">
-        <v>465.6924554125641</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O33" t="n">
-        <v>678.932513118762</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P33" t="n">
         <v>861.5759907321129</v>
@@ -6804,25 +6804,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>688.1586461827818</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>688.1586461827818</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V33" t="n">
-        <v>688.1586461827818</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W33" t="n">
-        <v>508.8342957770886</v>
+        <v>552.4446106051198</v>
       </c>
       <c r="X33" t="n">
-        <v>508.8342957770886</v>
+        <v>552.4446106051198</v>
       </c>
       <c r="Y33" t="n">
-        <v>508.8342957770886</v>
+        <v>344.6843118401658</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>754.3578252495552</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>793.5458634417773</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>837.2367140972136</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>858.8270606966518</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>771.7946937757483</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>749.5381364296027</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S34" t="n">
-        <v>749.5381364296027</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>749.5381364296027</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>198.7752914759215</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C35" t="n">
         <v>17.23151981464226</v>
@@ -6938,10 +6938,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
         <v>416.8664630901746</v>
@@ -6956,31 +6956,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>851.4843753638859</v>
+        <v>650.444607311663</v>
       </c>
       <c r="T35" t="n">
-        <v>851.4843753638859</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="U35" t="n">
-        <v>851.4843753638859</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="V35" t="n">
-        <v>851.4843753638859</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W35" t="n">
-        <v>633.9146807345644</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="X35" t="n">
-        <v>633.9146807345644</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="Y35" t="n">
-        <v>416.3449861052429</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="C36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="D36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="E36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="F36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="G36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I36" t="n">
         <v>17.23151981464226</v>
@@ -7020,46 +7020,46 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>142.5890798724797</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="M36" t="n">
-        <v>183.0578391930369</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N36" t="n">
-        <v>396.2978968992348</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O36" t="n">
-        <v>609.5379546054328</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>861.5759907321129</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>861.5759907321129</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="U36" t="n">
-        <v>644.0062961027915</v>
+        <v>167.2328274651121</v>
       </c>
       <c r="V36" t="n">
-        <v>426.43660147347</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="W36" t="n">
-        <v>208.8669068441485</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="X36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.23151981464226</v>
+        <v>107.5311489574858</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>754.3578252495552</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>793.5458634417773</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>837.2367140972136</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U37" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V37" t="n">
-        <v>861.5759907321129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>633.9146807345644</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C38" t="n">
-        <v>633.9146807345644</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D38" t="n">
-        <v>633.9146807345644</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E38" t="n">
-        <v>633.9146807345644</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>416.3449861052429</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
         <v>17.23151981464226</v>
@@ -7175,7 +7175,7 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
         <v>203.6264053839766</v>
@@ -7193,31 +7193,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y38" t="n">
-        <v>851.4843753638859</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>26.2079024910708</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
         <v>17.23151981464226</v>
@@ -7257,46 +7257,46 @@
         <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>17.23151981464226</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>230.4715775208402</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N39" t="n">
-        <v>443.7116352270382</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O39" t="n">
-        <v>656.9516929332361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P39" t="n">
-        <v>839.595170546587</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T39" t="n">
-        <v>659.389396090879</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="U39" t="n">
-        <v>659.389396090879</v>
+        <v>369.419422106346</v>
       </c>
       <c r="V39" t="n">
-        <v>659.389396090879</v>
+        <v>369.419422106346</v>
       </c>
       <c r="W39" t="n">
-        <v>441.8197014615575</v>
+        <v>369.419422106346</v>
       </c>
       <c r="X39" t="n">
-        <v>233.9682012560247</v>
+        <v>161.5679219008132</v>
       </c>
       <c r="Y39" t="n">
-        <v>26.2079024910708</v>
+        <v>161.5679219008132</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>412.4453105812599</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C41" t="n">
-        <v>412.4453105812599</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="D41" t="n">
-        <v>412.4453105812599</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>412.4453105812599</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="F41" t="n">
-        <v>196.8652463213176</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
         <v>17.07394108938743</v>
@@ -7421,40 +7421,40 @@
         <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>717.3093417733771</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6970544693717</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>628.0253748412023</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="X41" t="n">
-        <v>412.4453105812599</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y41" t="n">
-        <v>412.4453105812599</v>
+        <v>448.2340696092722</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.07394108938743</v>
+        <v>131.1972093345938</v>
       </c>
       <c r="C42" t="n">
-        <v>17.07394108938743</v>
+        <v>131.1972093345938</v>
       </c>
       <c r="D42" t="n">
-        <v>17.07394108938743</v>
+        <v>131.1972093345938</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>131.1972093345938</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>131.1972093345938</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>131.1972093345938</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7494,16 +7494,16 @@
         <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>228.3639620705569</v>
+        <v>37.1835139125123</v>
       </c>
       <c r="M42" t="n">
-        <v>439.6539830517264</v>
+        <v>248.4735348936818</v>
       </c>
       <c r="N42" t="n">
-        <v>650.9440040328959</v>
+        <v>459.7635558748512</v>
       </c>
       <c r="O42" t="n">
-        <v>853.6970544693717</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="P42" t="n">
         <v>853.6970544693717</v>
@@ -7512,28 +7512,28 @@
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>663.8141338692145</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>663.8141338692145</v>
+        <v>478.0931152788066</v>
       </c>
       <c r="U42" t="n">
-        <v>448.2340696092722</v>
+        <v>478.0931152788066</v>
       </c>
       <c r="V42" t="n">
-        <v>232.6540053493298</v>
+        <v>478.0931152788066</v>
       </c>
       <c r="W42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.5130510188642</v>
       </c>
       <c r="X42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.5130510188642</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.5130510188642</v>
       </c>
     </row>
     <row r="43">
@@ -7588,22 +7588,22 @@
         <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.6062315796582</v>
+        <v>64.57386465875476</v>
       </c>
       <c r="R43" t="n">
-        <v>151.6062315796582</v>
+        <v>64.57386465875476</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>64.57386465875476</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
         <v>17.07394108938743</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M8" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8547,10 +8547,10 @@
         <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>166.719161836058</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O15" t="n">
         <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
         <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>257.6882366820029</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>438.6332444111135</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>160.7572284521226</v>
+        <v>218.62179163951</v>
       </c>
       <c r="M33" t="n">
         <v>357.5280316050465</v>
@@ -10443,7 +10443,7 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,10 +10668,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>249.5274280969312</v>
       </c>
       <c r="M36" t="n">
-        <v>183.0115685892478</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M38" t="n">
         <v>445.740230910301</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
         <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>338.0329219811887</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>162.1846227582699</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,13 +11069,13 @@
         <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>333.8446085143028</v>
       </c>
       <c r="O41" t="n">
-        <v>367.8635777812772</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>158.8670796012124</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
@@ -11151,10 +11151,10 @@
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>347.3973054913896</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>352.6972385013215</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23063,31 +23063,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>326.6746162331822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="9">
@@ -23109,10 +23109,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>111.7232259685798</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H9" t="n">
         <v>86.61515304186563</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>132.254763809386</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>205.3792369440507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>338.8484382006936</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>124.2488267465189</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S11" t="n">
         <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>145.4246268742279</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>396.2589826120931</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>184.8555983757751</v>
+        <v>187.9095370861751</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,16 +23625,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>60.54175205706355</v>
@@ -23704,7 +23704,7 @@
         <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>208.1006776791572</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>181.4300443259292</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T17" t="n">
         <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>248.9843472277074</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>65.09533860212863</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23938,22 +23938,22 @@
         <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,13 +23972,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>128.0146919313124</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.7154835523083</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914269</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24151,7 +24151,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24215,10 +24215,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>194.6781583626143</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,19 +24403,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>59.4893961654308</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24582,10 +24582,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,19 +24680,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,25 +24722,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.2352032052647</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>190.7826537445036</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24877,10 +24877,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>20.75685641119472</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24971,7 +24971,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V32" t="n">
         <v>112.3582607871067</v>
@@ -24980,7 +24980,7 @@
         <v>133.8469710343848</v>
       </c>
       <c r="X32" t="n">
-        <v>154.3371029954408</v>
+        <v>180.0120675192578</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,13 +24996,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>74.16387625928331</v>
+        <v>161.0489145182247</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,19 +25114,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>155.2593996044853</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.3398439804523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>185.5445578263411</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>55.25269165184244</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>17.40658946639704</v>
+        <v>173.6959254268752</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>16.05395204426628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,22 +25391,22 @@
         <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F38" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>159.7464681711007</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>196.5189054968423</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>23.64014558455813</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>80.51001400175082</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,7 +25640,7 @@
         <v>193.4517821243685</v>
       </c>
       <c r="G41" t="n">
-        <v>237.3093453355242</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>135.8167051000701</v>
+        <v>161.2568773232574</v>
       </c>
       <c r="X41" t="n">
         <v>156.3068370611261</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>36.5305003824397</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>83.85691386232543</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="5">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488291.61581059</v>
+        <v>488291.6158105897</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488291.61581059</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="15">
@@ -26320,34 +26320,34 @@
         <v>51644.51686548873</v>
       </c>
       <c r="E2" t="n">
-        <v>51644.51686548873</v>
+        <v>51644.51686548872</v>
       </c>
       <c r="F2" t="n">
         <v>51644.51686548872</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.62330624469</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="H2" t="n">
         <v>74772.30263909959</v>
       </c>
       <c r="I2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909961</v>
       </c>
       <c r="J2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909957</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>72043.02528352958</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="M2" t="n">
         <v>72043.0252835296</v>
       </c>
       <c r="N2" t="n">
-        <v>72043.02528352958</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="O2" t="n">
         <v>71833.19353176958</v>
@@ -26421,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.21667432804715</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
         <v>22.21667432804714</v>
@@ -26528,34 +26528,34 @@
         <v>8478.555432738955</v>
       </c>
       <c r="E6" t="n">
-        <v>50064.58648652713</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="F6" t="n">
         <v>50064.58648652712</v>
       </c>
       <c r="G6" t="n">
-        <v>49644.41852217519</v>
+        <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
         <v>2355.314235302274</v>
       </c>
       <c r="I6" t="n">
-        <v>59939.10137763394</v>
+        <v>59939.10137763397</v>
       </c>
       <c r="J6" t="n">
         <v>59939.10137763394</v>
       </c>
       <c r="K6" t="n">
-        <v>59939.10137763392</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="L6" t="n">
-        <v>58786.10234497162</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="M6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="N6" t="n">
-        <v>58786.10234497162</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="O6" t="n">
         <v>58697.45770564707</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="Q9" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O11" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>25.62029119463084</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
         <v>25.62029119463083</v>
@@ -35580,7 +35580,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L14" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N15" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="N15" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>208.2870111838408</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>22.20284867224841</v>
+        <v>80.0674118596358</v>
       </c>
       <c r="M33" t="n">
         <v>215.3939976830282</v>
@@ -37163,7 +37163,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,10 +37388,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.973048317057</v>
       </c>
       <c r="M36" t="n">
-        <v>40.87753466722953</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>215.3939976830282</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M38" t="n">
         <v>215.3939976830282</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>215.3939976830282</v>
+        <v>206.6912098978553</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.20284867224837</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>104.4315449177119</v>
       </c>
       <c r="O41" t="n">
-        <v>137.7653663595904</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>213.4242636173429</v>
+        <v>20.31269982133825</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
@@ -37871,10 +37871,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>204.8010610469452</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
